--- a/data/trans_dic/P02E$nadie-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,53; 87,54</t>
+          <t>72,65; 87,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,1; 91,66</t>
+          <t>79,45; 91,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,18; 92,55</t>
+          <t>77,47; 92,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,13; 92,74</t>
+          <t>79,07; 92,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,8; 93,49</t>
+          <t>82,83; 93,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,73; 89,42</t>
+          <t>76,63; 89,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,89; 88,54</t>
+          <t>78,57; 88,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>83,02; 91,3</t>
+          <t>83,57; 91,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,12; 88,74</t>
+          <t>79,22; 88,71</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,79; 93,21</t>
+          <t>75,1; 93,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,36; 95,73</t>
+          <t>85,4; 95,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,07; 94,48</t>
+          <t>83,03; 94,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,34; 96,27</t>
+          <t>87,82; 96,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,67; 96,59</t>
+          <t>89,14; 96,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,25; 88,93</t>
+          <t>77,1; 89,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,52; 93,99</t>
+          <t>85,28; 93,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,22; 95,25</t>
+          <t>89,35; 95,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,17; 90,14</t>
+          <t>81,0; 89,95</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,49; 96,06</t>
+          <t>86,39; 96,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,74; 93,27</t>
+          <t>84,79; 92,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,04; 97,18</t>
+          <t>88,83; 97,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,17; 93,9</t>
+          <t>77,55; 93,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,78; 94,38</t>
+          <t>81,99; 94,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>89,45; 100,0</t>
+          <t>89,3; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,97; 94,15</t>
+          <t>85,69; 93,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,2; 92,6</t>
+          <t>85,51; 92,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,2; 97,54</t>
+          <t>90,55; 97,35</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,84; 94,89</t>
+          <t>87,49; 94,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,82; 96,02</t>
+          <t>90,28; 95,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,46; 96,19</t>
+          <t>89,47; 95,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,29; 92,81</t>
+          <t>85,01; 93,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,2; 94,87</t>
+          <t>89,79; 95,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,21; 89,31</t>
+          <t>81,68; 89,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,52; 92,98</t>
+          <t>87,87; 93,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,85; 94,66</t>
+          <t>91,08; 94,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,36; 91,67</t>
+          <t>86,3; 91,6</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,62; 98,42</t>
+          <t>86,69; 98,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,87; 97,58</t>
+          <t>88,54; 97,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,16; 94,96</t>
+          <t>85,17; 94,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,51; 97,26</t>
+          <t>90,07; 96,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,54; 92,75</t>
+          <t>86,13; 92,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,43; 93,12</t>
+          <t>84,76; 93,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,44; 96,74</t>
+          <t>90,98; 96,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,42; 93,51</t>
+          <t>88,17; 93,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,76; 92,74</t>
+          <t>86,47; 92,75</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1241,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,9; 100,0</t>
+          <t>42,82; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>61,35; 95,16</t>
+          <t>59,47; 95,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,67; 96,84</t>
+          <t>90,97; 96,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,95</t>
+          <t>89,94; 96,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,57; 95,5</t>
+          <t>88,04; 95,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,39; 97,15</t>
+          <t>91,23; 97,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,91; 95,78</t>
+          <t>89,93; 95,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,87; 94,79</t>
+          <t>87,18; 95,15</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,12; 92,02</t>
+          <t>87,2; 92,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89,47; 93,16</t>
+          <t>89,52; 93,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,1; 93,3</t>
+          <t>89,21; 93,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>89,74; 93,42</t>
+          <t>89,77; 93,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,08; 92,99</t>
+          <t>90,12; 93,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,63; 89,66</t>
+          <t>85,46; 89,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,39; 92,26</t>
+          <t>89,45; 92,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>90,31; 92,6</t>
+          <t>90,41; 92,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>87,59; 90,59</t>
+          <t>87,78; 90,61</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que no tienen ayuda al cuidado por parte de una persona externa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>92665</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>130237</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>83805</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>92396</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>146133</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>118905</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>185060</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>276370</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>202710</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>82882; 99490</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>119833; 138008</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>75038; 89241</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>83953; 97834</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>135582; 153193</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>109442; 128033</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>173055; 194874</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>262845; 287022</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>189871; 212615</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73594</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>141620</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>96239</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>132498</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>185168</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>131036</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>206092</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>326788</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>227275</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64001; 79352</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>131947; 147638</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>88972; 101262</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>125327; 137461</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>176438; 190778</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>121317; 140281</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>194378; 214103</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>314910; 335695</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>214265; 237932</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>111373</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>173839</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>131822</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58920</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>97955</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52532</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>170292</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>271794</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>184355</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>104229; 115887</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>164839; 180724</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>124383; 136275</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52250; 63187</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>89682; 103670</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48573; 54394</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>161125; 176369</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>259761; 281153</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>176054; 189267</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>214785</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>319931</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>239202</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>222933</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>368697</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>265381</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>437717</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>688628</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>504583</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>204477; 221803</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>308374; 327651</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>229148; 245730</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>211956; 232551</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>357881; 378975</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>252508; 277419</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>424438; 450235</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>674149; 701082</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>487771; 517733</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>59291</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>127762</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>123238</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>178581</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>321500</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>223475</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>237873</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>449261</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>346714</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>54064; 61391</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>119784; 132024</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>115870; 129195</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>170800; 183672</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>308114; 331770</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>211469; 232347</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>229253; 243897</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>434697; 460244</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>333358; 357579</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10172</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>16212</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>235650</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>267596</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>179577</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>245821</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>274794</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>195789</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8266; 10172</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3504; 8182</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>11504; 18389</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>226996; 241818</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>257688; 275463</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>171163; 186353</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>236926; 251968</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>265023; 282224</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>186361; 203397</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1425</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>561879</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>900587</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>690518</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>920977</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1387050</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>970906</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1482856</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2287637</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1661425</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>546033; 577409</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>881615; 916099</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>674031; 704440</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>901943; 937550</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1364314; 1408145</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>946520; 992633</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1458885; 1506410</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2258936; 2314987</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1635553; 1688284</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P02E$nadie-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
